--- a/XDO20.xlsx
+++ b/XDO20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luizdurao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cauedagostinho/Documents/Insper/2˚sem/Codes/Projeto/Equipe10_TurmaB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08DDBAC-B3EE-4656-B3F3-64DE2142D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74675E25-CEEB-2D40-AB1C-D3B9FE1F0A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35920" yWindow="1060" windowWidth="30240" windowHeight="18880" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definições iniciais" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -540,11 +540,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -593,50 +617,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,17 +879,17 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="129.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="129.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
@@ -924,40 +942,40 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="6" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -971,11 +989,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
@@ -989,11 +1007,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -1007,9 +1025,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="40"/>
-      <c r="B6" s="32"/>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="12" t="s">
         <v>23</v>
       </c>
@@ -1021,9 +1039,9 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="40"/>
-      <c r="B7" s="32"/>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
@@ -1035,9 +1053,9 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
@@ -1049,9 +1067,9 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
@@ -1063,9 +1081,9 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1077,9 +1095,9 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
@@ -1091,9 +1109,9 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1105,9 +1123,9 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
@@ -1119,9 +1137,9 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
@@ -1133,9 +1151,9 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
@@ -1147,9 +1165,9 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1161,9 +1179,9 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="12" t="s">
         <v>23</v>
       </c>
@@ -1175,9 +1193,9 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="12" t="s">
         <v>23</v>
       </c>
@@ -1189,9 +1207,9 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="12" t="s">
         <v>23</v>
       </c>
@@ -1203,9 +1221,9 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="12" t="s">
         <v>23</v>
       </c>
@@ -1217,9 +1235,9 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="12" t="s">
         <v>23</v>
       </c>
@@ -1231,9 +1249,9 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="12" t="s">
         <v>23</v>
       </c>
@@ -1245,9 +1263,9 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="12" t="s">
         <v>23</v>
       </c>
@@ -1261,21 +1279,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1284,6 +1287,21 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" sqref="C6:C23" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -1320,40 +1338,40 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="72.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="6" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="72.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1367,11 +1385,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
@@ -1385,11 +1403,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
@@ -1403,11 +1421,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
@@ -1421,9 +1439,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="40"/>
-      <c r="B7" s="32"/>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
@@ -1435,9 +1453,9 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
@@ -1449,9 +1467,9 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
@@ -1463,9 +1481,9 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1477,9 +1495,9 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
@@ -1491,9 +1509,9 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1505,9 +1523,9 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
@@ -1519,9 +1537,9 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
@@ -1533,9 +1551,9 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
@@ -1547,9 +1565,9 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1561,9 +1579,9 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="12" t="s">
         <v>23</v>
       </c>
@@ -1575,9 +1593,9 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="12" t="s">
         <v>23</v>
       </c>
@@ -1589,9 +1607,9 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="12" t="s">
         <v>23</v>
       </c>
@@ -1603,9 +1621,9 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="12" t="s">
         <v>23</v>
       </c>
@@ -1617,9 +1635,9 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="12" t="s">
         <v>23</v>
       </c>
@@ -1631,9 +1649,9 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="12" t="s">
         <v>23</v>
       </c>
@@ -1645,9 +1663,9 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="12" t="s">
         <v>23</v>
       </c>
@@ -1661,21 +1679,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1684,6 +1687,21 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" sqref="C6:C23" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -1720,40 +1738,40 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="6" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1767,11 +1785,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
@@ -1785,11 +1803,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
@@ -1803,11 +1821,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="12" t="s">
         <v>21</v>
       </c>
@@ -1821,9 +1839,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="40"/>
-      <c r="B7" s="32"/>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
@@ -1835,9 +1853,9 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
@@ -1849,9 +1867,9 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
@@ -1863,9 +1881,9 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1877,9 +1895,9 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
@@ -1891,9 +1909,9 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1905,9 +1923,9 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
@@ -1919,9 +1937,9 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
@@ -1933,9 +1951,9 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
@@ -1947,9 +1965,9 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1961,9 +1979,9 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="12" t="s">
         <v>23</v>
       </c>
@@ -1975,9 +1993,9 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="12" t="s">
         <v>23</v>
       </c>
@@ -1989,9 +2007,9 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="12" t="s">
         <v>23</v>
       </c>
@@ -2003,9 +2021,9 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="12" t="s">
         <v>23</v>
       </c>
@@ -2017,9 +2035,9 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="12" t="s">
         <v>23</v>
       </c>
@@ -2031,9 +2049,9 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="12" t="s">
         <v>23</v>
       </c>
@@ -2045,9 +2063,9 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="12" t="s">
         <v>23</v>
       </c>
@@ -2061,21 +2079,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -2084,6 +2087,21 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" sqref="C6:C23" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -2120,40 +2138,40 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="72" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="6" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -2167,11 +2185,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="9" t="s">
         <v>40</v>
       </c>
@@ -2185,11 +2203,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="9" t="s">
         <v>43</v>
       </c>
@@ -2203,9 +2221,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="40"/>
-      <c r="B6" s="32"/>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="12" t="s">
         <v>23</v>
       </c>
@@ -2217,9 +2235,9 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="40"/>
-      <c r="B7" s="32"/>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
@@ -2231,9 +2249,9 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
@@ -2245,9 +2263,9 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
@@ -2259,9 +2277,9 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
@@ -2273,9 +2291,9 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
@@ -2287,9 +2305,9 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
@@ -2301,9 +2319,9 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
@@ -2315,9 +2333,9 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
@@ -2329,9 +2347,9 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
@@ -2343,9 +2361,9 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
         <v>23</v>
       </c>
@@ -2357,9 +2375,9 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="12" t="s">
         <v>23</v>
       </c>
@@ -2371,9 +2389,9 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="12" t="s">
         <v>23</v>
       </c>
@@ -2385,9 +2403,9 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="12" t="s">
         <v>23</v>
       </c>
@@ -2399,9 +2417,9 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="12" t="s">
         <v>23</v>
       </c>
@@ -2413,9 +2431,9 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="12" t="s">
         <v>23</v>
       </c>
@@ -2427,9 +2445,9 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="12" t="s">
         <v>23</v>
       </c>
@@ -2441,9 +2459,9 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="12" t="s">
         <v>23</v>
       </c>
@@ -2457,21 +2475,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -2480,6 +2483,21 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" sqref="C6:C23" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -2513,32 +2531,33 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="68.1640625" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+    <col min="4" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
@@ -2552,11 +2571,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:6" ht="29">
+      <c r="A3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
@@ -2570,8 +2589,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="16"/>
@@ -2588,11 +2607,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
@@ -2606,11 +2625,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="17" t="s">
         <v>27</v>
       </c>
@@ -2624,8 +2643,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="130.5">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:6" ht="29">
+      <c r="A7" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="19"/>
@@ -2642,11 +2661,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="17" t="s">
         <v>17</v>
       </c>
@@ -2660,11 +2679,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="17" t="s">
         <v>35</v>
       </c>
@@ -2678,11 +2697,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="17" t="s">
         <v>40</v>
       </c>
@@ -2696,11 +2715,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="17" t="s">
         <v>43</v>
       </c>
@@ -2715,10 +2734,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="17" t="s">
         <v>21</v>
       </c>
@@ -2732,12 +2751,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:6" ht="16">
+      <c r="A13" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20">
         <f>SUM(E3:E12)</f>
@@ -2746,17 +2765,10 @@
       <c r="F13" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+  <mergeCells count="3">
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="C5:C12" xr:uid="{00000000-0002-0000-0500-000000000000}">
